--- a/charts.xlsx
+++ b/charts.xlsx
@@ -1,25 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNOM\MCA\mca-sem-1\lab\softSkill\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0223B61-C3D5-4361-8761-2AF3833D93A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ex1" sheetId="1" r:id="rId1"/>
+    <sheet name="ex2" sheetId="2" r:id="rId2"/>
+    <sheet name="ex4 Toy Sales" sheetId="4" r:id="rId3"/>
+    <sheet name="ex3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">product </t>
+  </si>
+  <si>
+    <t>region1</t>
+  </si>
+  <si>
+    <t>region2</t>
+  </si>
+  <si>
+    <t>region3</t>
+  </si>
+  <si>
+    <t>dolls</t>
+  </si>
+  <si>
+    <t>trucks</t>
+  </si>
+  <si>
+    <t>puzzles</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +125,4533 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0692038495188101E-2"/>
+          <c:y val="0.21337962962962964"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex1'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex1'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF4-45B1-BFBE-54EADF68C826}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex1'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex1'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACF4-45B1-BFBE-54EADF68C826}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex1'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex1'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACF4-45B1-BFBE-54EADF68C826}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1547070671"/>
+        <c:axId val="1547067311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1547070671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1547067311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1547067311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1547070671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex2'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB30-43D4-8D59-5CB00942704C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex2'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB30-43D4-8D59-5CB00942704C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex2'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB30-43D4-8D59-5CB00942704C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1548622031"/>
+        <c:axId val="1548613391"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1548622031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1548613391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1548613391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1548622031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Toy Sales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex3'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex3'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3623-41A8-B8AD-9C8AA650DDF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex3'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex3'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex3'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3623-41A8-B8AD-9C8AA650DDF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex3'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trucks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex3'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3623-41A8-B8AD-9C8AA650DDF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="1545301007"/>
+        <c:axId val="1545308687"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1545301007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545308687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1545308687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545301007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex3'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dolls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex3'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>region1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>region2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>region3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex3'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C9E-4E70-AD5D-36764221AA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex3'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trucks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex3'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>region1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>region2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>region3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex3'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C9E-4E70-AD5D-36764221AA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex3'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>puzzles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex3'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>region1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>region2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>region3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex3'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C9E-4E70-AD5D-36764221AA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1545300527"/>
+        <c:axId val="1545306287"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ex3'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ex3'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>region1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>region2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>region3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ex3'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C9E-4E70-AD5D-36764221AA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1545300527"/>
+        <c:axId val="1545306287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1545300527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545306287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1545306287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545300527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{728A955D-757B-4441-91CD-66CC94711AE4}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF8EFB0-AB54-7162-E11E-BFDFC9A58038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6124C7AE-BC10-3C0E-77D4-2FFCFD2B338D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664539" cy="6284360"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25097F29-C2CF-6819-ED53-C45C1FEACC21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9DFFAF-5891-C348-EC12-A7D07045C4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +4916,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2456</v>
+      </c>
+      <c r="C2">
+        <v>2345</v>
+      </c>
+      <c r="D2">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2344</v>
+      </c>
+      <c r="C3">
+        <v>1245</v>
+      </c>
+      <c r="D3">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1918</v>
+      </c>
+      <c r="C4">
+        <v>2722</v>
+      </c>
+      <c r="D4">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>6718</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>6312</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>9155</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0757BCF-64B6-4685-9125-40A5B381AD96}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2456</v>
+      </c>
+      <c r="C2">
+        <v>2345</v>
+      </c>
+      <c r="D2">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2344</v>
+      </c>
+      <c r="C3">
+        <v>1245</v>
+      </c>
+      <c r="D3">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1918</v>
+      </c>
+      <c r="C4">
+        <v>2722</v>
+      </c>
+      <c r="D4">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>6718</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>6312</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>9155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F299A29E-6B48-46A3-8582-A9C62287D840}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2456</v>
+      </c>
+      <c r="C2">
+        <v>2345</v>
+      </c>
+      <c r="D2">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2344</v>
+      </c>
+      <c r="C3">
+        <v>1245</v>
+      </c>
+      <c r="D3">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1918</v>
+      </c>
+      <c r="C4">
+        <v>2722</v>
+      </c>
+      <c r="D4">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>6718</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>6312</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>9155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>